--- a/backendData/output/questions_data_full.xlsx
+++ b/backendData/output/questions_data_full.xlsx
@@ -560,7 +560,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:30</t>
+          <t>2026-01-07 16:59:05</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -622,7 +622,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:30</t>
+          <t>2026-01-07 16:59:05</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -684,7 +684,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:30</t>
+          <t>2026-01-07 16:59:05</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -746,7 +746,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:30</t>
+          <t>2026-01-07 16:59:05</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -808,7 +808,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:30</t>
+          <t>2026-01-07 16:59:05</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -870,7 +870,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:30</t>
+          <t>2026-01-07 16:59:05</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -932,7 +932,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:30</t>
+          <t>2026-01-07 16:59:05</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -994,7 +994,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:30</t>
+          <t>2026-01-07 16:59:05</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:30</t>
+          <t>2026-01-07 16:59:05</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:30</t>
+          <t>2026-01-07 16:59:05</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:32</t>
+          <t>2026-01-07 16:59:08</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:32</t>
+          <t>2026-01-07 16:59:08</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:32</t>
+          <t>2026-01-07 16:59:08</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:32</t>
+          <t>2026-01-07 16:59:08</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:32</t>
+          <t>2026-01-07 16:59:08</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:32</t>
+          <t>2026-01-07 16:59:08</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:32</t>
+          <t>2026-01-07 16:59:08</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:32</t>
+          <t>2026-01-07 16:59:08</t>
         </is>
       </c>
       <c r="N19" t="n">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:32</t>
+          <t>2026-01-07 16:59:08</t>
         </is>
       </c>
       <c r="N20" t="n">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:32</t>
+          <t>2026-01-07 16:59:08</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:34</t>
+          <t>2026-01-07 16:59:10</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:34</t>
+          <t>2026-01-07 16:59:10</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:34</t>
+          <t>2026-01-07 16:59:10</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:34</t>
+          <t>2026-01-07 16:59:10</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:34</t>
+          <t>2026-01-07 16:59:10</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:34</t>
+          <t>2026-01-07 16:59:10</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:34</t>
+          <t>2026-01-07 16:59:10</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:34</t>
+          <t>2026-01-07 16:59:10</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:34</t>
+          <t>2026-01-07 16:59:10</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:34</t>
+          <t>2026-01-07 16:59:10</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:36</t>
+          <t>2026-01-07 16:59:13</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:36</t>
+          <t>2026-01-07 16:59:13</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:36</t>
+          <t>2026-01-07 16:59:13</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:36</t>
+          <t>2026-01-07 16:59:13</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:36</t>
+          <t>2026-01-07 16:59:13</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:36</t>
+          <t>2026-01-07 16:59:13</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:36</t>
+          <t>2026-01-07 16:59:13</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:36</t>
+          <t>2026-01-07 16:59:13</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2026-01-07 16:30:36</t>
+          <t>2026-01-07 16:59:13</t>
         </is>
       </c>
       <c r="N40" t="n">

--- a/backendData/output/questions_data_full.xlsx
+++ b/backendData/output/questions_data_full.xlsx
@@ -560,7 +560,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:05</t>
+          <t>2026-01-07 21:17:41</t>
         </is>
       </c>
       <c r="N2" t="n">
@@ -622,7 +622,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:05</t>
+          <t>2026-01-07 21:17:41</t>
         </is>
       </c>
       <c r="N3" t="n">
@@ -684,7 +684,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:05</t>
+          <t>2026-01-07 21:17:41</t>
         </is>
       </c>
       <c r="N4" t="n">
@@ -746,7 +746,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:05</t>
+          <t>2026-01-07 21:17:41</t>
         </is>
       </c>
       <c r="N5" t="n">
@@ -808,7 +808,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:05</t>
+          <t>2026-01-07 21:17:41</t>
         </is>
       </c>
       <c r="N6" t="n">
@@ -870,7 +870,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:05</t>
+          <t>2026-01-07 21:17:41</t>
         </is>
       </c>
       <c r="N7" t="n">
@@ -932,7 +932,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:05</t>
+          <t>2026-01-07 21:17:41</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -994,7 +994,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:05</t>
+          <t>2026-01-07 21:17:41</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1056,7 +1056,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:05</t>
+          <t>2026-01-07 21:17:41</t>
         </is>
       </c>
       <c r="N10" t="n">
@@ -1118,7 +1118,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:05</t>
+          <t>2026-01-07 21:17:41</t>
         </is>
       </c>
       <c r="N11" t="n">
@@ -1180,7 +1180,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:08</t>
+          <t>2026-01-07 21:17:43</t>
         </is>
       </c>
       <c r="N12" t="n">
@@ -1242,7 +1242,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:08</t>
+          <t>2026-01-07 21:17:43</t>
         </is>
       </c>
       <c r="N13" t="n">
@@ -1304,7 +1304,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:08</t>
+          <t>2026-01-07 21:17:43</t>
         </is>
       </c>
       <c r="N14" t="n">
@@ -1366,7 +1366,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:08</t>
+          <t>2026-01-07 21:17:43</t>
         </is>
       </c>
       <c r="N15" t="n">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:08</t>
+          <t>2026-01-07 21:17:43</t>
         </is>
       </c>
       <c r="N16" t="n">
@@ -1490,7 +1490,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:08</t>
+          <t>2026-01-07 21:17:43</t>
         </is>
       </c>
       <c r="N17" t="n">
@@ -1552,7 +1552,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:08</t>
+          <t>2026-01-07 21:17:43</t>
         </is>
       </c>
       <c r="N18" t="n">
@@ -1614,7 +1614,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:08</t>
+          <t>2026-01-07 21:17:43</t>
         </is>
       </c>
       <c r="N19" t="n">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:08</t>
+          <t>2026-01-07 21:17:43</t>
         </is>
       </c>
       <c r="N20" t="n">
@@ -1738,7 +1738,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:08</t>
+          <t>2026-01-07 21:17:43</t>
         </is>
       </c>
       <c r="N21" t="n">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:10</t>
+          <t>2026-01-07 21:17:44</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -1862,7 +1862,7 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:10</t>
+          <t>2026-01-07 21:17:44</t>
         </is>
       </c>
       <c r="N23" t="n">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:10</t>
+          <t>2026-01-07 21:17:44</t>
         </is>
       </c>
       <c r="N24" t="n">
@@ -1986,7 +1986,7 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:10</t>
+          <t>2026-01-07 21:17:44</t>
         </is>
       </c>
       <c r="N25" t="n">
@@ -2048,7 +2048,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:10</t>
+          <t>2026-01-07 21:17:44</t>
         </is>
       </c>
       <c r="N26" t="n">
@@ -2110,7 +2110,7 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:10</t>
+          <t>2026-01-07 21:17:44</t>
         </is>
       </c>
       <c r="N27" t="n">
@@ -2172,7 +2172,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:10</t>
+          <t>2026-01-07 21:17:44</t>
         </is>
       </c>
       <c r="N28" t="n">
@@ -2234,7 +2234,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:10</t>
+          <t>2026-01-07 21:17:44</t>
         </is>
       </c>
       <c r="N29" t="n">
@@ -2296,7 +2296,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:10</t>
+          <t>2026-01-07 21:17:44</t>
         </is>
       </c>
       <c r="N30" t="n">
@@ -2358,7 +2358,7 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:10</t>
+          <t>2026-01-07 21:17:44</t>
         </is>
       </c>
       <c r="N31" t="n">
@@ -2420,7 +2420,7 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:13</t>
+          <t>2026-01-07 21:17:46</t>
         </is>
       </c>
       <c r="N32" t="n">
@@ -2482,7 +2482,7 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:13</t>
+          <t>2026-01-07 21:17:46</t>
         </is>
       </c>
       <c r="N33" t="n">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:13</t>
+          <t>2026-01-07 21:17:46</t>
         </is>
       </c>
       <c r="N34" t="n">
@@ -2606,7 +2606,7 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:13</t>
+          <t>2026-01-07 21:17:46</t>
         </is>
       </c>
       <c r="N35" t="n">
@@ -2668,7 +2668,7 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:13</t>
+          <t>2026-01-07 21:17:46</t>
         </is>
       </c>
       <c r="N36" t="n">
@@ -2730,7 +2730,7 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:13</t>
+          <t>2026-01-07 21:17:46</t>
         </is>
       </c>
       <c r="N37" t="n">
@@ -2792,7 +2792,7 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:13</t>
+          <t>2026-01-07 21:17:46</t>
         </is>
       </c>
       <c r="N38" t="n">
@@ -2854,7 +2854,7 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:13</t>
+          <t>2026-01-07 21:17:46</t>
         </is>
       </c>
       <c r="N39" t="n">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>2026-01-07 16:59:13</t>
+          <t>2026-01-07 21:17:46</t>
         </is>
       </c>
       <c r="N40" t="n">
